--- a/models/test/output.xlsx
+++ b/models/test/output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -103,6 +103,30 @@
     <t>c1t19</t>
   </si>
   <si>
+    <t>c1t110</t>
+  </si>
+  <si>
+    <t>c1t111</t>
+  </si>
+  <si>
+    <t>c1t112</t>
+  </si>
+  <si>
+    <t>c1t113</t>
+  </si>
+  <si>
+    <t>c1t114</t>
+  </si>
+  <si>
+    <t>c1t115</t>
+  </si>
+  <si>
+    <t>c1t116</t>
+  </si>
+  <si>
+    <t>c1t117</t>
+  </si>
+  <si>
     <t>c1t21</t>
   </si>
   <si>
@@ -115,30 +139,6 @@
     <t>c1t24</t>
   </si>
   <si>
-    <t>c1t25</t>
-  </si>
-  <si>
-    <t>c1t26</t>
-  </si>
-  <si>
-    <t>c1t27</t>
-  </si>
-  <si>
-    <t>c1t28</t>
-  </si>
-  <si>
-    <t>c1t29</t>
-  </si>
-  <si>
-    <t>c1t210</t>
-  </si>
-  <si>
-    <t>c1t211</t>
-  </si>
-  <si>
-    <t>c1t212</t>
-  </si>
-  <si>
     <t>c1</t>
   </si>
   <si>
@@ -157,15 +157,39 @@
     <t>m9</t>
   </si>
   <si>
+    <t>m7</t>
+  </si>
+  <si>
+    <t>m8</t>
+  </si>
+  <si>
+    <t>m10</t>
+  </si>
+  <si>
+    <t>m11</t>
+  </si>
+  <si>
+    <t>m12</t>
+  </si>
+  <si>
     <t>m13</t>
   </si>
   <si>
+    <t>m14</t>
+  </si>
+  <si>
+    <t>m15</t>
+  </si>
+  <si>
+    <t>m17</t>
+  </si>
+  <si>
+    <t>m6</t>
+  </si>
+  <si>
     <t>m18</t>
   </si>
   <si>
-    <t>m11</t>
-  </si>
-  <si>
     <t>m3</t>
   </si>
   <si>
@@ -181,39 +205,12 @@
     <t>m1</t>
   </si>
   <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
     <t>m16</t>
   </si>
   <si>
-    <t>m17</t>
-  </si>
-  <si>
     <t>min_vol</t>
   </si>
   <si>
-    <t>min_weight</t>
-  </si>
-  <si>
     <t>min_price</t>
   </si>
   <si>
@@ -229,13 +226,19 @@
     <t>trans_cost</t>
   </si>
   <si>
+    <t>extraplant_cost</t>
+  </si>
+  <si>
     <t>cost_ratio</t>
   </si>
   <si>
-    <t>plant_limit</t>
-  </si>
-  <si>
-    <t>trans_cost_ratio</t>
+    <t>total_plant</t>
+  </si>
+  <si>
+    <t>trans_cost_total</t>
+  </si>
+  <si>
+    <t>trans_total_ratio</t>
   </si>
   <si>
     <t>c1t1</t>
@@ -244,6 +247,12 @@
     <t>c1t2</t>
   </si>
   <si>
+    <t>['p3', 'p5']</t>
+  </si>
+  <si>
+    <t>['p3']</t>
+  </si>
+  <si>
     <t>inv_qty</t>
   </si>
   <si>
@@ -253,6 +262,18 @@
     <t>sales_qty</t>
   </si>
   <si>
+    <t>dos_min</t>
+  </si>
+  <si>
+    <t>dos_max</t>
+  </si>
+  <si>
+    <t>dos_per_lot</t>
+  </si>
+  <si>
+    <t>dos_per_unit</t>
+  </si>
+  <si>
     <t>inv_after</t>
   </si>
   <si>
@@ -262,6 +283,21 @@
     <t>dos_after</t>
   </si>
   <si>
+    <t>plant_avl</t>
+  </si>
+  <si>
+    <t>c1m9</t>
+  </si>
+  <si>
+    <t>c1m6</t>
+  </si>
+  <si>
+    <t>c1m7</t>
+  </si>
+  <si>
+    <t>c1m8</t>
+  </si>
+  <si>
     <t>c1m10</t>
   </si>
   <si>
@@ -280,25 +316,16 @@
     <t>c1m15</t>
   </si>
   <si>
+    <t>c1m17</t>
+  </si>
+  <si>
+    <t>c1m18</t>
+  </si>
+  <si>
     <t>c1m16</t>
   </si>
   <si>
-    <t>c1m17</t>
-  </si>
-  <si>
-    <t>c1m18</t>
-  </si>
-  <si>
-    <t>c1m6</t>
-  </si>
-  <si>
-    <t>c1m7</t>
-  </si>
-  <si>
-    <t>c1m8</t>
-  </si>
-  <si>
-    <t>c1m9</t>
+    <t>['p3', 'p3']</t>
   </si>
   <si>
     <t>order_priority</t>
@@ -777,28 +804,28 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3360</v>
+        <v>1920</v>
       </c>
       <c r="O2">
-        <v>3360</v>
+        <v>1920</v>
       </c>
       <c r="P2">
-        <v>63.63636363636364</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="Q2">
-        <v>13608</v>
+        <v>7776</v>
       </c>
       <c r="R2">
-        <v>43680</v>
+        <v>24960</v>
       </c>
       <c r="S2">
-        <v>32323.2</v>
+        <v>18470.4</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -827,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -836,28 +863,28 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P3">
-        <v>0.2727272727272727</v>
+        <v>2.727272727272727</v>
       </c>
       <c r="Q3">
-        <v>370.2</v>
+        <v>320</v>
       </c>
       <c r="R3">
-        <v>84000</v>
+        <v>3840</v>
       </c>
       <c r="S3">
-        <v>52920</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -895,28 +922,28 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="O4">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="P4">
-        <v>0.6313131313131313</v>
+        <v>1.298701298701299</v>
       </c>
       <c r="Q4">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="R4">
-        <v>48000</v>
+        <v>2400</v>
       </c>
       <c r="S4">
-        <v>36960</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -945,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -954,28 +981,28 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="O5">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="P5">
-        <v>1.065340909090909</v>
+        <v>1.298701298701299</v>
       </c>
       <c r="Q5">
-        <v>58.5</v>
+        <v>240</v>
       </c>
       <c r="R5">
-        <v>990</v>
+        <v>2560</v>
       </c>
       <c r="S5">
-        <v>891</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -992,49 +1019,49 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
       </c>
       <c r="G6">
-        <v>1150</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M6">
-        <v>1150</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O6">
-        <v>1150</v>
+        <v>80</v>
       </c>
       <c r="P6">
-        <v>25.09090909090909</v>
+        <v>5.681818181818183</v>
       </c>
       <c r="Q6">
-        <v>7705</v>
+        <v>312</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>5280</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1051,49 +1078,49 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
       </c>
       <c r="G7">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O7">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="P7">
-        <v>5.454545454545454</v>
+        <v>9.09090909090909</v>
       </c>
       <c r="Q7">
-        <v>1675</v>
+        <v>1000</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>304000</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>112480</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1110,49 +1137,49 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
       </c>
       <c r="G8">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O8">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="P8">
-        <v>1.193181818181818</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="Q8">
-        <v>252</v>
+        <v>493.6</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>112000</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>70560</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1169,49 +1196,49 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
         <v>52</v>
       </c>
       <c r="G9">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O9">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="P9">
-        <v>1.193181818181818</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="Q9">
-        <v>252</v>
+        <v>8</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1228,49 +1255,49 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
         <v>53</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="P10">
-        <v>0.07272727272727274</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="Q10">
-        <v>16.8</v>
+        <v>219.2</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>29600</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>19536</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1281,16 +1308,16 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1299,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1314,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3840</v>
+        <v>80</v>
       </c>
       <c r="O11">
-        <v>3840</v>
+        <v>80</v>
       </c>
       <c r="P11">
-        <v>72.72727272727273</v>
+        <v>0.4545454545454546</v>
       </c>
       <c r="Q11">
-        <v>15552</v>
+        <v>72</v>
       </c>
       <c r="R11">
-        <v>49920</v>
+        <v>15200</v>
       </c>
       <c r="S11">
-        <v>36940.8</v>
+        <v>10032</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1340,16 +1367,16 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1367,28 +1394,28 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="O12">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="P12">
-        <v>3.787878787878787</v>
+        <v>4.608585858585858</v>
       </c>
       <c r="Q12">
-        <v>306</v>
+        <v>372.3</v>
       </c>
       <c r="R12">
-        <v>3480</v>
+        <v>4234</v>
       </c>
       <c r="S12">
-        <v>3132</v>
+        <v>3810.6</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1399,16 +1426,16 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1417,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1426,28 +1453,28 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="O13">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="P13">
-        <v>2.045454545454545</v>
+        <v>1.420454545454545</v>
       </c>
       <c r="Q13">
-        <v>240</v>
+        <v>184.5</v>
       </c>
       <c r="R13">
-        <v>2880</v>
+        <v>108000</v>
       </c>
       <c r="S13">
-        <v>2592</v>
+        <v>83160</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1458,55 +1485,55 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14">
+        <v>1150</v>
+      </c>
+      <c r="H14">
+        <v>150</v>
+      </c>
+      <c r="I14">
+        <v>250</v>
+      </c>
+      <c r="J14">
         <v>4</v>
       </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="N14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>60</v>
+        <v>1150</v>
       </c>
       <c r="P14">
-        <v>0.9740259740259739</v>
+        <v>25.09090909090909</v>
       </c>
       <c r="Q14">
-        <v>180</v>
+        <v>7705</v>
       </c>
       <c r="R14">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>1620</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1517,55 +1544,55 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="N15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="P15">
-        <v>0.9740259740259739</v>
+        <v>5.454545454545454</v>
       </c>
       <c r="Q15">
-        <v>180</v>
+        <v>1675</v>
       </c>
       <c r="R15">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>1728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1576,55 +1603,55 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N16">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="P16">
-        <v>6.818181818181818</v>
+        <v>1.193181818181818</v>
       </c>
       <c r="Q16">
-        <v>750</v>
+        <v>252</v>
       </c>
       <c r="R16">
-        <v>228000</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>84360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1635,55 +1662,55 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N17">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="P17">
-        <v>0.4545454545454546</v>
+        <v>1.193181818181818</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>252</v>
       </c>
       <c r="R17">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>7650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1694,55 +1721,55 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="P18">
-        <v>2.272727272727272</v>
+        <v>0.07272727272727274</v>
       </c>
       <c r="Q18">
-        <v>164.4</v>
+        <v>16.8</v>
       </c>
       <c r="R18">
-        <v>22200</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>14652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1756,13 +1783,13 @@
         <v>42</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1771,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1780,28 +1807,28 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>60</v>
+        <v>5040</v>
       </c>
       <c r="O19">
-        <v>60</v>
+        <v>5040</v>
       </c>
       <c r="P19">
-        <v>0.2727272727272728</v>
+        <v>95.45454545454545</v>
       </c>
       <c r="Q19">
-        <v>56.4</v>
+        <v>20412</v>
       </c>
       <c r="R19">
-        <v>21000</v>
+        <v>65520</v>
       </c>
       <c r="S19">
-        <v>15960</v>
+        <v>48484.8</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1815,7 +1842,7 @@
         <v>42</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
         <v>43</v>
@@ -1830,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1839,28 +1866,28 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="O20">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="P20">
-        <v>0.340909090909091</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="Q20">
-        <v>54</v>
+        <v>67.67999999999999</v>
       </c>
       <c r="R20">
-        <v>11400</v>
+        <v>25200</v>
       </c>
       <c r="S20">
-        <v>7523.999999999999</v>
+        <v>19152</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1874,13 +1901,13 @@
         <v>42</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1898,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="O21">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P21">
-        <v>3.196022727272728</v>
+        <v>1.10479797979798</v>
       </c>
       <c r="Q21">
-        <v>175.5</v>
+        <v>143.5</v>
       </c>
       <c r="R21">
-        <v>2970</v>
+        <v>84000</v>
       </c>
       <c r="S21">
-        <v>2673</v>
+        <v>64680</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1933,13 +1960,13 @@
         <v>42</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1948,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1957,28 +1984,28 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O22">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="P22">
-        <v>1.262626262626263</v>
+        <v>0.4419191919191918</v>
       </c>
       <c r="Q22">
-        <v>164</v>
+        <v>35.7</v>
       </c>
       <c r="R22">
-        <v>96000</v>
+        <v>406</v>
       </c>
       <c r="S22">
-        <v>73920</v>
+        <v>365.4</v>
       </c>
     </row>
   </sheetData>
@@ -1988,13 +2015,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2029,19 +2056,19 @@
         <v>70</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>4</v>
@@ -2049,10 +2076,13 @@
       <c r="R1" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
@@ -2067,48 +2097,51 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="G2">
-        <v>120000</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>28000</v>
       </c>
       <c r="I2">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="J2">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="K2">
         <v>0.1</v>
       </c>
       <c r="L2">
+        <v>99.94917027417027</v>
+      </c>
+      <c r="M2">
+        <v>21138.4</v>
+      </c>
+      <c r="N2">
+        <v>624074</v>
+      </c>
+      <c r="O2">
+        <v>340921</v>
+      </c>
+      <c r="P2">
         <v>2</v>
       </c>
-      <c r="M2">
-        <v>98.6102904040404</v>
-      </c>
-      <c r="N2">
-        <v>24019.5</v>
-      </c>
-      <c r="O2">
-        <v>176670</v>
-      </c>
-      <c r="P2">
-        <v>123094.2</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
+      <c r="Q2" t="s">
+        <v>76</v>
       </c>
       <c r="R2">
-        <v>12309.42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>10500</v>
+      </c>
+      <c r="S2">
+        <v>34092.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
@@ -2123,43 +2156,46 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="G3">
-        <v>120000</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>28000</v>
       </c>
       <c r="I3">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="J3">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="K3">
         <v>0.1</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>97.32853535353536</v>
       </c>
       <c r="M3">
-        <v>95.1263979076479</v>
+        <v>20658.88</v>
       </c>
       <c r="N3">
-        <v>17828.3</v>
+        <v>175126</v>
       </c>
       <c r="O3">
-        <v>450570</v>
+        <v>132682.2</v>
       </c>
       <c r="P3">
-        <v>252751.8</v>
-      </c>
-      <c r="Q3">
         <v>1</v>
       </c>
+      <c r="Q3" t="s">
+        <v>77</v>
+      </c>
       <c r="R3">
-        <v>25275.18</v>
+        <v>10000</v>
+      </c>
+      <c r="S3">
+        <v>13268.22</v>
       </c>
     </row>
   </sheetData>
@@ -2169,13 +2205,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2186,68 +2222,110 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>3000</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <v>240</v>
+      </c>
+      <c r="J2">
+        <v>1.2</v>
+      </c>
+      <c r="K2">
+        <v>0.005</v>
+      </c>
+      <c r="L2">
+        <v>6960</v>
+      </c>
+      <c r="M2">
+        <v>7960</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>39.8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2">
-        <v>40</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>60</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>40</v>
@@ -2259,27 +2337,48 @@
         <v>2</v>
       </c>
       <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
         <v>60</v>
       </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3">
+        <v>80</v>
+      </c>
+      <c r="M3">
+        <v>120</v>
+      </c>
+      <c r="N3">
         <v>20</v>
       </c>
-      <c r="J3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="O3">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>40</v>
@@ -2291,27 +2390,48 @@
         <v>2</v>
       </c>
       <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
         <v>60</v>
       </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4">
+        <v>80</v>
+      </c>
+      <c r="M4">
+        <v>120</v>
+      </c>
+      <c r="N4">
         <v>20</v>
       </c>
-      <c r="J4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="O4">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -2323,27 +2443,48 @@
         <v>2</v>
       </c>
       <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
         <v>60</v>
       </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
       <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>2.5</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5">
+        <v>80</v>
+      </c>
+      <c r="M5">
+        <v>120</v>
+      </c>
+      <c r="N5">
         <v>20</v>
       </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="O5">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>40</v>
@@ -2355,27 +2496,48 @@
         <v>2</v>
       </c>
       <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
         <v>60</v>
       </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
       <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0.5</v>
+      </c>
+      <c r="L6">
+        <v>80</v>
+      </c>
+      <c r="M6">
+        <v>120</v>
+      </c>
+      <c r="N6">
         <v>20</v>
       </c>
-      <c r="J6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="O6">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>40</v>
@@ -2387,27 +2549,48 @@
         <v>2</v>
       </c>
       <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
         <v>60</v>
       </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
       <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>2.5</v>
+      </c>
+      <c r="K7">
+        <v>0.5</v>
+      </c>
+      <c r="L7">
+        <v>80</v>
+      </c>
+      <c r="M7">
+        <v>120</v>
+      </c>
+      <c r="N7">
         <v>20</v>
       </c>
-      <c r="J7">
+      <c r="O7">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
       </c>
       <c r="D8">
         <v>40</v>
@@ -2419,27 +2602,48 @@
         <v>2</v>
       </c>
       <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
         <v>60</v>
       </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
       <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>2.5</v>
+      </c>
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+      <c r="L8">
+        <v>80</v>
+      </c>
+      <c r="M8">
+        <v>120</v>
+      </c>
+      <c r="N8">
         <v>20</v>
       </c>
-      <c r="J8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="O8">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>40</v>
@@ -2451,27 +2655,48 @@
         <v>2</v>
       </c>
       <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
         <v>60</v>
       </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
       <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>2.5</v>
+      </c>
+      <c r="K9">
+        <v>0.5</v>
+      </c>
+      <c r="L9">
+        <v>80</v>
+      </c>
+      <c r="M9">
+        <v>120</v>
+      </c>
+      <c r="N9">
         <v>20</v>
       </c>
-      <c r="J9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="O9">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>40</v>
@@ -2483,27 +2708,48 @@
         <v>2</v>
       </c>
       <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
         <v>60</v>
       </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
       <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>2.5</v>
+      </c>
+      <c r="K10">
+        <v>0.5</v>
+      </c>
+      <c r="L10">
+        <v>80</v>
+      </c>
+      <c r="M10">
+        <v>120</v>
+      </c>
+      <c r="N10">
         <v>20</v>
       </c>
-      <c r="J10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="O10">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>40</v>
@@ -2515,27 +2761,48 @@
         <v>2</v>
       </c>
       <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
         <v>60</v>
       </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
       <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>2.5</v>
+      </c>
+      <c r="K11">
+        <v>0.5</v>
+      </c>
+      <c r="L11">
+        <v>80</v>
+      </c>
+      <c r="M11">
+        <v>120</v>
+      </c>
+      <c r="N11">
         <v>20</v>
       </c>
-      <c r="J11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="O11">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>40</v>
@@ -2547,21 +2814,42 @@
         <v>2</v>
       </c>
       <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
         <v>60</v>
       </c>
-      <c r="H12">
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>2.5</v>
+      </c>
+      <c r="K12">
+        <v>0.5</v>
+      </c>
+      <c r="L12">
+        <v>80</v>
+      </c>
+      <c r="M12">
+        <v>120</v>
+      </c>
+      <c r="N12">
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
         <v>100</v>
-      </c>
-      <c r="I12">
-        <v>20</v>
-      </c>
-      <c r="J12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>92</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -2579,48 +2867,90 @@
         <v>2</v>
       </c>
       <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
         <v>60</v>
       </c>
-      <c r="H13">
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>2.5</v>
+      </c>
+      <c r="K13">
+        <v>0.5</v>
+      </c>
+      <c r="L13">
+        <v>80</v>
+      </c>
+      <c r="M13">
+        <v>120</v>
+      </c>
+      <c r="N13">
+        <v>20</v>
+      </c>
+      <c r="O13">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
         <v>100</v>
       </c>
-      <c r="I13">
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>60</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>0.5</v>
+      </c>
+      <c r="L14">
+        <v>72</v>
+      </c>
+      <c r="M14">
+        <v>112</v>
+      </c>
+      <c r="N14">
         <v>20</v>
       </c>
-      <c r="J13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14">
-        <v>1000</v>
-      </c>
-      <c r="E14">
-        <v>3000</v>
-      </c>
-      <c r="F14">
-        <v>200</v>
-      </c>
-      <c r="G14">
-        <v>7200</v>
-      </c>
-      <c r="H14">
-        <v>8200</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>41</v>
+      <c r="O14">
+        <v>56</v>
+      </c>
+      <c r="P14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2650,24 +2980,24 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>1150</v>
@@ -2684,13 +3014,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>250</v>
@@ -2707,13 +3037,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2730,13 +3060,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>126</v>
@@ -2753,13 +3083,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>126</v>
